--- a/clash.xlsx
+++ b/clash.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="21075" windowHeight="8190"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="21075" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Troops" sheetId="3" r:id="rId1"/>
+    <sheet name="Defense" sheetId="4" r:id="rId2"/>
+    <sheet name="Heros" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>housing</t>
   </si>
@@ -43,42 +45,6 @@
     <t>Wizard</t>
   </si>
   <si>
-    <t>healer</t>
-  </si>
-  <si>
-    <t>dragon</t>
-  </si>
-  <si>
-    <t>pekka</t>
-  </si>
-  <si>
-    <t>baby dragon</t>
-  </si>
-  <si>
-    <t>miner</t>
-  </si>
-  <si>
-    <t>minion</t>
-  </si>
-  <si>
-    <t>hog rider</t>
-  </si>
-  <si>
-    <t>valkyrie</t>
-  </si>
-  <si>
-    <t>golem</t>
-  </si>
-  <si>
-    <t>witch</t>
-  </si>
-  <si>
-    <t>lava hound</t>
-  </si>
-  <si>
-    <t>bowler</t>
-  </si>
-  <si>
     <t>damage_per_second</t>
   </si>
   <si>
@@ -88,7 +54,97 @@
     <t>cost</t>
   </si>
   <si>
-    <t>electro dragon</t>
+    <t>Ice Golem</t>
+  </si>
+  <si>
+    <t>Archer Queen</t>
+  </si>
+  <si>
+    <t>Barbarian King</t>
+  </si>
+  <si>
+    <t>Grand Warden</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>Cannon</t>
+  </si>
+  <si>
+    <t>Healer</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Pekka</t>
+  </si>
+  <si>
+    <t>Baby Dragon</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Minion</t>
+  </si>
+  <si>
+    <t>Hog Rider</t>
+  </si>
+  <si>
+    <t>Valkyrie</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Witch</t>
+  </si>
+  <si>
+    <t>Lava Hound</t>
+  </si>
+  <si>
+    <t>Bowler</t>
+  </si>
+  <si>
+    <t>Electro Dragon</t>
+  </si>
+  <si>
+    <t>Archer Tower</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Mortar</t>
+  </si>
+  <si>
+    <t>Air Defense</t>
+  </si>
+  <si>
+    <t>Wizard Tower</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Bomber Tower</t>
+  </si>
+  <si>
+    <t>X-Bow</t>
+  </si>
+  <si>
+    <t>Inferno Tower</t>
+  </si>
+  <si>
+    <t>Eagle Artillery</t>
+  </si>
+  <si>
+    <t>Giga Tesla</t>
   </si>
 </sst>
 </file>
@@ -436,30 +492,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -470,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="E2">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -487,13 +544,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -504,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>1440</v>
+        <v>1660</v>
       </c>
       <c r="E4">
-        <v>4000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -524,7 +581,7 @@
         <v>52</v>
       </c>
       <c r="D5">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -538,13 +595,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E6">
-        <v>4000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -555,13 +612,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="D7">
-        <v>690</v>
+        <v>840</v>
       </c>
       <c r="E7">
-        <v>5000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,24 +629,24 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D8">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E8">
-        <v>5000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>14</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>1500</v>
@@ -600,188 +657,186 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
       <c r="C10">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D10">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="E10">
-        <v>46000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
       <c r="C11">
-        <v>470</v>
+        <v>610</v>
       </c>
       <c r="D11">
-        <v>5100</v>
+        <v>6300</v>
       </c>
       <c r="E11">
-        <v>50000</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D12">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E12">
-        <v>19000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
       <c r="C13">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D13">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="E13">
-        <v>6000</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E14">
-        <v>1200</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D15">
-        <v>700</v>
+        <v>810</v>
       </c>
       <c r="E15">
-        <v>11500</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
       <c r="C16">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D16">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E16">
-        <v>22000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>30</v>
       </c>
       <c r="C17">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <f>6900+2760</f>
-        <v>9660</v>
+        <v>7200</v>
       </c>
       <c r="E17">
-        <v>90000</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="D18">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="E18">
-        <v>45000</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>30</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <f>700+7200</f>
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="E19">
-        <v>57000</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D20">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="E20">
         <v>17000</v>
@@ -789,7 +844,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -802,6 +857,284 @@
       </c>
       <c r="E21">
         <v>44000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>3200</v>
+      </c>
+      <c r="E22">
+        <v>28000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>125</v>
+      </c>
+      <c r="C2">
+        <v>1620</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>116</v>
+      </c>
+      <c r="C3">
+        <v>1330</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>900</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>1400</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>2240</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>950</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>1400</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>155</v>
+      </c>
+      <c r="C9">
+        <v>3500</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>81</v>
+      </c>
+      <c r="C10">
+        <v>3000</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>120</v>
+      </c>
+      <c r="C11">
+        <v>4800</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12">
+        <v>7500</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>658</v>
+      </c>
+      <c r="C2">
+        <v>2575</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>410</v>
+      </c>
+      <c r="C3">
+        <v>7303</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>168</v>
+      </c>
+      <c r="C4">
+        <v>1833</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/clash.xlsx
+++ b/clash.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="21075" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="21075" windowHeight="8190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="3" r:id="rId1"/>
     <sheet name="Defense" sheetId="4" r:id="rId2"/>
     <sheet name="Heros" sheetId="5" r:id="rId3"/>
+    <sheet name="Buildings" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>housing</t>
   </si>
@@ -145,6 +146,63 @@
   </si>
   <si>
     <t>Giga Tesla</t>
+  </si>
+  <si>
+    <t>Town Hall</t>
+  </si>
+  <si>
+    <t>Gold Mine</t>
+  </si>
+  <si>
+    <t>Gold Storage</t>
+  </si>
+  <si>
+    <t>Elixir Collector</t>
+  </si>
+  <si>
+    <t>Elixir Storage</t>
+  </si>
+  <si>
+    <t>Dark Elixir Drill</t>
+  </si>
+  <si>
+    <t>Dark Elixir Storage</t>
+  </si>
+  <si>
+    <t>Clan Castle</t>
+  </si>
+  <si>
+    <t>Army Camp</t>
+  </si>
+  <si>
+    <t>Barracks</t>
+  </si>
+  <si>
+    <t>Dark Barracks</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Spell Factory</t>
+  </si>
+  <si>
+    <t>Dark Spell Factory</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>BK Alter</t>
+  </si>
+  <si>
+    <t>AQ Alter</t>
+  </si>
+  <si>
+    <t>GW Alter</t>
+  </si>
+  <si>
+    <t>Builders Hut</t>
   </si>
 </sst>
 </file>
@@ -886,11 +944,12 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C1" sqref="C1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1071,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1140,4 +1199,262 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>